--- a/data/trans_orig/ED_ADU-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad adulto elegido</t>
+          <t>Edad media del adulto entrevistado</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>63,76</t>
+          <t>63,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>68,99</t>
+          <t>68,77</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>66,94</t>
+          <t>66,52</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,24; 65,28</t>
+          <t>61,45; 64,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>67,81; 70,07</t>
+          <t>67,62; 69,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>65,99; 67,85</t>
+          <t>65,51; 67,46</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45,46</t>
+          <t>45,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,16</t>
+          <t>46,98</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>45,82</t>
+          <t>46,13</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,55; 46,43</t>
+          <t>44,21; 47,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,88; 50,25</t>
+          <t>44,72; 53,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>44,97; 47,69</t>
+          <t>44,72; 49,12</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>48,81</t>
+          <t>48,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,04</t>
+          <t>44,97</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>46,87</t>
+          <t>46,76</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,46; 50,13</t>
+          <t>47,25; 49,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,06; 46,06</t>
+          <t>43,96; 45,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>46,01; 47,7</t>
+          <t>45,91; 47,57</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>49,06</t>
+          <t>48,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,97</t>
+          <t>51,12</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>50,07</t>
+          <t>49,89</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,35; 49,87</t>
+          <t>47,79; 49,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,18; 52,56</t>
+          <t>49,8; 54,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,52; 50,92</t>
+          <t>49,13; 51,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/ED_ADU-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Estudios-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>54,33; 56,5</t>
+          <t>54,11; 56,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,1; 59,54</t>
+          <t>57,1; 59,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58,45; 61,11</t>
+          <t>58,41; 60,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61,45; 64,83</t>
+          <t>61,34; 64,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>58,24; 60,17</t>
+          <t>58,42; 60,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,07; 61,93</t>
+          <t>59,98; 61,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,94; 65,13</t>
+          <t>62,88; 65,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>67,62; 69,81</t>
+          <t>67,63; 69,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>56,88; 58,32</t>
+          <t>56,81; 58,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>59,24; 60,68</t>
+          <t>59,12; 60,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61,36; 62,97</t>
+          <t>61,36; 63,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>65,51; 67,46</t>
+          <t>65,49; 67,5</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,45; 37,87</t>
+          <t>36,4; 37,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,35; 39,76</t>
+          <t>38,33; 39,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,22; 42,62</t>
+          <t>41,25; 42,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,21; 47,09</t>
+          <t>44,14; 47,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,21; 37,65</t>
+          <t>36,19; 37,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,05; 39,43</t>
+          <t>38,15; 39,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,74; 43,34</t>
+          <t>41,82; 43,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,72; 53,56</t>
+          <t>44,65; 52,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,5; 37,5</t>
+          <t>36,47; 37,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,46; 39,45</t>
+          <t>38,47; 39,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>41,76; 42,8</t>
+          <t>41,78; 42,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>44,72; 49,12</t>
+          <t>44,72; 49,56</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,34; 41,67</t>
+          <t>39,29; 41,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,22; 41,82</t>
+          <t>39,22; 41,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,44; 43,97</t>
+          <t>41,47; 44,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,25; 49,89</t>
+          <t>47,27; 50,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,01; 39,37</t>
+          <t>36,99; 39,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,68; 39,23</t>
+          <t>36,71; 39,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,48; 41,92</t>
+          <t>39,43; 41,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>43,96; 45,98</t>
+          <t>43,89; 46,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,52; 40,15</t>
+          <t>38,57; 40,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>38,34; 40,12</t>
+          <t>38,44; 40,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,83; 42,48</t>
+          <t>40,81; 42,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>45,91; 47,57</t>
+          <t>45,91; 47,72</t>
         </is>
       </c>
     </row>
@@ -1144,32 +1144,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,8; 44,07</t>
+          <t>42,78; 44,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,04; 45,39</t>
+          <t>44,12; 45,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,43; 46,71</t>
+          <t>45,4; 46,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,79; 49,39</t>
+          <t>47,76; 49,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,18; 46,42</t>
+          <t>45,13; 46,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,41; 47,68</t>
+          <t>46,37; 47,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,8; 54,33</t>
+          <t>49,77; 54,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,13; 45,06</t>
+          <t>44,15; 45,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,46; 46,34</t>
+          <t>45,47; 46,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>46,74; 47,64</t>
+          <t>46,72; 47,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,13; 51,44</t>
+          <t>49,14; 51,66</t>
         </is>
       </c>
     </row>
